--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,11 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{144C35B3-D18D-4CE5-8656-9B62E00C91C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Programming, Scripting, and Markup Languages" sheetId="1" r:id="rId1"/>
+    <sheet name="Programming, Scripting, and Mar" sheetId="1" r:id="rId1"/>
     <sheet name="Most Loved Languages" sheetId="2" r:id="rId2"/>
     <sheet name="Most Dreaded Languages" sheetId="3" r:id="rId3"/>
     <sheet name="Most Wanted Languages" sheetId="4" r:id="rId4"/>
@@ -13,10 +21,10 @@
     <sheet name="Most Loved Web Frameworks" sheetId="6" r:id="rId6"/>
     <sheet name="Most Dreaded Web Frameworks" sheetId="7" r:id="rId7"/>
     <sheet name="Most Wanted Web Frameworks" sheetId="8" r:id="rId8"/>
-    <sheet name="Other Frameworks, Libraries, and Tools" sheetId="9" r:id="rId9"/>
-    <sheet name="Most Loved Other Frameworks, Libraries, and Tools" sheetId="10" r:id="rId10"/>
-    <sheet name="Most Dreaded Other Frameworks, Libraries, and Tools" sheetId="11" r:id="rId11"/>
-    <sheet name="Most Wanted Other Frameworks, Libraries, and Tools" sheetId="12" r:id="rId12"/>
+    <sheet name="Other Frameworks, Libraries, an" sheetId="9" r:id="rId9"/>
+    <sheet name="Most Loved Other Frameworks, Li" sheetId="10" r:id="rId10"/>
+    <sheet name="Most Dreaded Other Frameworks, " sheetId="11" r:id="rId11"/>
+    <sheet name="Most Wanted Other Frameworks, L" sheetId="12" r:id="rId12"/>
     <sheet name="Databases" sheetId="13" r:id="rId13"/>
     <sheet name="Most Loved Databases" sheetId="14" r:id="rId14"/>
     <sheet name="Most Dreaded Databases" sheetId="15" r:id="rId15"/>
@@ -25,11 +33,13 @@
     <sheet name="Most Loved Platforms" sheetId="18" r:id="rId18"/>
     <sheet name="Most Dreaded Platforms" sheetId="19" r:id="rId19"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>JavaScript</t>
   </si>
@@ -299,13 +309,19 @@
   </si>
   <si>
     <t>IBM Cloud or Watson</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -330,217 +346,538 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyFont="1" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B2">
         <v>67.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3">
         <v>63.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4">
         <v>54.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5">
         <v>44.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>40.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+      <c r="B6">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7">
         <v>33.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8">
         <v>31.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9">
         <v>26.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10">
         <v>25.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11">
         <v>23.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12">
         <v>21.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+      <c r="B13">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14">
         <v>7.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15">
         <v>7.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16">
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17">
         <v>6.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18">
         <v>5.9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B19">
         <v>5.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="0" t="s">
+      <c r="B20">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
+      <c r="B21">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B22">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23">
         <v>3.6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B24">
         <v>3.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B25">
         <v>2.1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B26">
         <v>0.9</v>
       </c>
     </row>
@@ -550,162 +887,162 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>71.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>70.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>68.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>68.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+      <c r="B4">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>67.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+      <c r="B6">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>66.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>65.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>58.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>57.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>57.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>52.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>47.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>46.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>45.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>38.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>28.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>27.6</v>
       </c>
     </row>
@@ -715,162 +1052,162 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>72.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+      <c r="B1">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>71.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>61.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>54.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>53.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>52.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>47.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>42.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>42.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>41.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>34.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>32.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>31.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>31.2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>29.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>28.5</v>
       </c>
     </row>
@@ -880,162 +1217,162 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+      <c r="B1">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>17.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>10.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+      <c r="B5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+      <c r="B6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>6.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>6.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>5.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>4.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>1.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>1.5</v>
       </c>
     </row>
@@ -1045,122 +1382,122 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>55.6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>36.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>31.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>26.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>18.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>16.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>14.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>13.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>7.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>3.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>1.9</v>
       </c>
     </row>
@@ -1170,122 +1507,122 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>66.5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>63.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>58.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>54.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>51.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>50.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>50.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>49.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>47.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>43.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>23.3</v>
       </c>
     </row>
@@ -1295,122 +1632,122 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>76.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>66.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>66.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>56.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>52.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>50.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>49.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>49.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>48.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>45.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>41.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>36.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>33.5</v>
       </c>
     </row>
@@ -1420,123 +1757,123 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+      <c r="B1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>15.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>12.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>12.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+      <c r="B5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1.1</v>
+      <c r="B14">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1545,138 +1882,138 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>53.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>26.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>26.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>14.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>14.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>14.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>12.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>11.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>10.6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>7.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>1.6</v>
       </c>
     </row>
@@ -1686,138 +2023,138 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>76.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+      <c r="B1">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>73.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>71.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+      <c r="B3">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>66.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+      <c r="B4">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>66.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+      <c r="B5">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>64.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+      <c r="B6">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>62.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>61.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>60.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>57.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>57.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>53.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>46.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>33</v>
       </c>
     </row>
@@ -1827,138 +2164,138 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>62.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>53.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>46.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>42.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>39.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>38.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>35.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>33.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>33.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>28.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>26.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>23.1</v>
       </c>
     </row>
@@ -1968,211 +2305,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B2">
         <v>86.1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>67.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+      <c r="B3">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4">
         <v>66.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5">
         <v>62.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6">
         <v>62.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7">
         <v>62.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8">
         <v>62.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9">
         <v>59.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10">
         <v>59.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11">
         <v>58.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12">
         <v>56.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13">
         <v>53.7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14">
         <v>53.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15">
         <v>53.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16">
         <v>51.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17">
         <v>44.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18">
         <v>44.1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B19">
         <v>43.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20">
         <v>42.9</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
+      <c r="B21">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B22">
         <v>33.1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23">
         <v>29.4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B24">
         <v>28.6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B25">
         <v>23.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>19.6</v>
+      <c r="B26">
+        <v>19.600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2181,210 +2528,220 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>80.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+      <c r="B2">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>76.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+      <c r="B3">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>71.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+      <c r="B4">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>70.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+      <c r="B5">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>66.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+      <c r="B6">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7">
         <v>62.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8">
         <v>57.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9">
         <v>56.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10">
         <v>55.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11">
         <v>55.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12">
         <v>48.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13">
         <v>46.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14">
         <v>46.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15">
         <v>46.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16">
         <v>43.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17">
         <v>41.7</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18">
         <v>40.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+      <c r="B19">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20">
         <v>37.9</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
+      <c r="B21">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>37.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="0" t="s">
+      <c r="B22">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23">
         <v>37.1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="0" t="s">
+      <c r="B24">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B25">
         <v>32.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B26">
         <v>13.9</v>
       </c>
     </row>
@@ -2394,210 +2751,220 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B2">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3">
         <v>18.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+      <c r="B4">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6">
         <v>14.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7">
         <v>12.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+      <c r="B8">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9">
         <v>8.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+      <c r="B10">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11">
         <v>7.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12">
         <v>6.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13">
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+      <c r="B15">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16">
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17">
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18">
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B19">
         <v>4.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20">
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B21">
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B22">
         <v>2.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="0" t="s">
+      <c r="B23">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="0" t="s">
+      <c r="B25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B26">
         <v>0.7</v>
       </c>
     </row>
@@ -2607,138 +2974,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>43.3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>35.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>25.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>21.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>21.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+      <c r="B6">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>17.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+      <c r="B8">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>16.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>14.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>14.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>11.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+      <c r="B14">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>3.2</v>
       </c>
     </row>
@@ -2748,138 +3115,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>70.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>68.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>61.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>60.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>57.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>55.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>54.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>51.4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>49.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>45.6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>36.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>36.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>25.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>24.1</v>
       </c>
     </row>
@@ -2889,138 +3256,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>75.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+      <c r="B1">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>63.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>63.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>54.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>50.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>48.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>45.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>44.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>42.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>38.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>31.1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>29.3</v>
       </c>
     </row>
@@ -3030,138 +3397,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>22.4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>10.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>9.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>6.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>5.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>5.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
@@ -3171,162 +3538,162 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1">
         <v>51.4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>35.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>26.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>11.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>10.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>7.3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>7.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>6.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>6.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>5.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>5.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="0" t="s">
+      <c r="B18">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>1.8</v>
       </c>
     </row>
